--- a/slp-backend/report_templates/table.xlsx
+++ b/slp-backend/report_templates/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikiv\IdeaProjects\docx4jtest\report_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikiv\Praca Inżynierska\repository\SampleLab\slp-backend\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D378089-4F52-444F-AEE5-3F1CB369FB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DECF5B9-6910-490B-9AF2-3537F04B40CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DD25C92-9769-4196-8C6E-8C0C50B10E5A}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{3DD25C92-9769-4196-8C6E-8C0C50B10E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_Hlk168356103" localSheetId="0">Arkusz1!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
